--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -441,7 +441,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>60.73684210526316</v>
+        <v>60.1875</v>
       </c>
       <c r="C2">
         <v>23</v>
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -474,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -485,7 +485,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>78</v>
+        <v>72.25</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -496,7 +496,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1.677142857142857</v>
+        <v>1.6325</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>27.80963727473741</v>
+        <v>27.04826788538178</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -529,7 +529,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -540,7 +540,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -551,7 +551,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -573,7 +573,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -584,7 +584,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -592,7 +592,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -441,7 +441,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>60.1875</v>
+        <v>63.15</v>
       </c>
       <c r="C2">
         <v>23</v>
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -474,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -485,7 +485,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>72.25</v>
+        <v>70.5</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -496,7 +496,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1.6325</v>
+        <v>1.636</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>27.04826788538178</v>
+        <v>26.29600832022061</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -529,7 +529,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -540,7 +540,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>1</v>

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -14,57 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Promedio</t>
+    <t>Supervivientes</t>
   </si>
   <si>
-    <t>Números prueba</t>
+    <t>Muerte</t>
   </si>
   <si>
     <t>Edad</t>
   </si>
   <si>
-    <t>Género</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>Femenino</t>
-  </si>
-  <si>
-    <t>Peso</t>
-  </si>
-  <si>
-    <t>Talla</t>
-  </si>
-  <si>
-    <t>IMC</t>
-  </si>
-  <si>
-    <t>Comorbilidades</t>
-  </si>
-  <si>
-    <t>Diabetes mellitus</t>
-  </si>
-  <si>
-    <t>Hipertensión arterial</t>
-  </si>
-  <si>
-    <t>Valvulopatía</t>
-  </si>
-  <si>
-    <t>Infarto agudo al miocardio</t>
-  </si>
-  <si>
-    <t>Insuficiencia cardiáca</t>
-  </si>
-  <si>
-    <t>EVC</t>
-  </si>
-  <si>
-    <t>EPOC</t>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -422,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,10 +402,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>63.15</v>
+        <v>59.86666666666667</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -456,143 +417,6 @@
       </c>
       <c r="C3">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>26</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>70.5</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>1.636</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>26.29600832022061</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -7,25 +7,70 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabla1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Supervivientes</t>
-  </si>
-  <si>
-    <t>Muerte</t>
-  </si>
-  <si>
-    <t>Edad</t>
-  </si>
-  <si>
-    <t>2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Edad (media)</t>
+  </si>
+  <si>
+    <t>Peso (media)</t>
+  </si>
+  <si>
+    <t>Talla (media)</t>
+  </si>
+  <si>
+    <t>IMC (media)</t>
+  </si>
+  <si>
+    <t>Tabaquismo</t>
+  </si>
+  <si>
+    <t>IT (media)</t>
+  </si>
+  <si>
+    <t>Diabetes mellitus</t>
+  </si>
+  <si>
+    <t>Hipertensión arterial</t>
+  </si>
+  <si>
+    <t>Infarto agudo al miocardio</t>
+  </si>
+  <si>
+    <t>Valvulopatia</t>
+  </si>
+  <si>
+    <t>Fibrilación auricular</t>
+  </si>
+  <si>
+    <t>Insuficiencia cardiáca</t>
+  </si>
+  <si>
+    <t>Miocardiopatia dilatada</t>
+  </si>
+  <si>
+    <t>Bloqueo auriculoventricular</t>
+  </si>
+  <si>
+    <t>Dislipidemias</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>Vasopresores prequirúrgicos</t>
+  </si>
+  <si>
+    <t>Ventilación mecánica</t>
   </si>
 </sst>
 </file>
@@ -383,40 +428,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="B2">
+        <v>63.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>59.86666666666667</v>
-      </c>
-      <c r="C2">
-        <v>71.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B4">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>29.74419988102321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>17.33333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>1</v>
       </c>
-      <c r="C3">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
